--- a/config/Datas/test/table_one.xlsx
+++ b/config/Datas/test/table_one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban\config\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F38293-0C7F-4189-BFCE-89030E50CB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0E9401-383E-46B9-B028-03F027E4D5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_role_csv" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>##</t>
   </si>
@@ -40,42 +40,12 @@
     <t>date</t>
   </si>
   <si>
-    <t>k1</t>
-  </si>
-  <si>
-    <t>k2</t>
-  </si>
-  <si>
-    <t>k3</t>
-  </si>
-  <si>
-    <t>k4</t>
-  </si>
-  <si>
-    <t>k5</t>
-  </si>
-  <si>
-    <t>k6</t>
-  </si>
-  <si>
-    <t>k7</t>
-  </si>
-  <si>
-    <t>k8</t>
-  </si>
-  <si>
     <t>禁止</t>
   </si>
   <si>
     <t>x2:byte</t>
   </si>
   <si>
-    <t>array:int</t>
-  </si>
-  <si>
-    <t>map:int:int</t>
-  </si>
-  <si>
     <t>注释行</t>
   </si>
   <si>
@@ -89,30 +59,6 @@
   </si>
   <si>
     <t>1982-08-24;1999-09-09</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>1,2,4</t>
-  </si>
-  <si>
-    <t>1,2,5</t>
-  </si>
-  <si>
-    <t>1,2,6</t>
-  </si>
-  <si>
-    <t>1,2,7</t>
-  </si>
-  <si>
-    <t>1,2,8</t>
-  </si>
-  <si>
-    <t>1,2,9</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
   </si>
   <si>
     <t>key_name</t>
@@ -438,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,7 +402,7 @@
     <col min="13" max="13" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -480,116 +426,44 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="T2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="U2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="V2" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="W2" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="X2" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5" t="s">
-        <v>25</v>
-      </c>
-      <c r="W5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
